--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_75.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_75.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1184</v>
+        <v>2.2972</v>
       </c>
       <c r="J3" t="n">
-        <v>28.36</v>
+        <v>28.49</v>
       </c>
       <c r="K3" t="n">
-        <v>1078.4</v>
+        <v>1175.03</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="R3" t="n">
-        <v>1080.7284</v>
+        <v>1144.7201</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9146</v>
+        <v>2.0703</v>
       </c>
       <c r="J4" t="n">
-        <v>25.76</v>
+        <v>16.71</v>
       </c>
       <c r="K4" t="n">
-        <v>885.37</v>
+        <v>621.13</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="R4" t="n">
-        <v>969.7995</v>
+        <v>1015.8323</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.7446</v>
+        <v>10.5452</v>
       </c>
       <c r="J5" t="n">
-        <v>27.29</v>
+        <v>26.91</v>
       </c>
       <c r="K5" t="n">
-        <v>4773.77</v>
+        <v>5095.1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.18</v>
+        <v>11.85</v>
       </c>
       <c r="R5" t="n">
-        <v>4161.3081</v>
+        <v>4361.86</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.577</v>
+        <v>12.6431</v>
       </c>
       <c r="J6" t="n">
-        <v>27.64</v>
+        <v>27.36</v>
       </c>
       <c r="K6" t="n">
-        <v>5744.87</v>
+        <v>6210.06</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.92</v>
+        <v>10.02</v>
       </c>
       <c r="R6" t="n">
-        <v>3389.9327</v>
+        <v>3686.6018</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.0843</v>
+        <v>5.5306</v>
       </c>
       <c r="J7" t="n">
-        <v>33.82</v>
+        <v>32.79</v>
       </c>
       <c r="K7" t="n">
-        <v>3087.41</v>
+        <v>3256.16</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.07</v>
+        <v>7.12</v>
       </c>
       <c r="R7" t="n">
-        <v>2415.6391</v>
+        <v>2619.6183</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>58.0992</v>
+        <v>64.7265</v>
       </c>
       <c r="J8" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="K8" t="n">
-        <v>4451.27</v>
+        <v>4988.63</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12.84</v>
+        <v>13.12</v>
       </c>
       <c r="R8" t="n">
-        <v>4388.4915</v>
+        <v>4829.438</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>12.2031</v>
+        <v>14.448</v>
       </c>
       <c r="J9" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="K9" t="n">
-        <v>421.01</v>
+        <v>480.67</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>337.0691</v>
+        <v>375.0724</v>
       </c>
     </row>
   </sheetData>
